--- a/biology/Zoologie/Dolichopus/Dolichopus.xlsx
+++ b/biology/Zoologie/Dolichopus/Dolichopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hygroceleuthus
 Dolichopus est un genre d'insectes diptères de la famille des Dolichopodidae.
@@ -512,17 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Dolichopus est créé en 1796 par l'entomologiste français Pierre-André Latreille (1762-1833)[1],[2].
-Période
-Selon Paleobiology Database en 2023, ce genre Dolichopus a huit collections pour onze occurrences de fossiles, quatre collections de l'Oligocène, une en France et trois en Allemagne, ainsi que quatre collections de l'Éocène, une au Canada en Colombie britannique, deux en Russie et une aux États-Unis au Wyoming. La période est donc de l'Éocène soit de 50,3 Ma à aujourd'hui.
-Synonymes
-Le genre Hygroceleuthus a été créé en 1857 par Loew. Il est déclaré synonyme en 2004 par Pollet et al.[2].
-Sous-famille
-Il est classé dans la sous-famille des Dolichopodinae à la création de celle-ci par Pierre-André Latreille en 1809. Celle-ci est confirmée en 2004 Pollet et al.[2].
-Étymologie
-Le nom du genre, Dolichopus, du grec ancien δολιχός, dolikhos, « long », et  ποὺς, poús, « pied », fait référence à la longueur des pattes de ces espèces[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Dolichopus est créé en 1796 par l'entomologiste français Pierre-André Latreille (1762-1833),.
 </t>
         </is>
       </c>
@@ -548,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Présentation</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dolichopus est un grand genre cosmopolite de mouches de la famille des Dolichopodidae. Les adultes sont de petites mouches, généralement de moins de 8 mm de longueur. Presque toutes les espèces sont bleu verdâtre métallique à bronze verdâtre[4]. C'est le plus grand genre de Dolichopodidae avec plus de 600 espèces dans le monde[5].
+          <t>Période</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, ce genre Dolichopus a huit collections pour onze occurrences de fossiles, quatre collections de l'Oligocène, une en France et trois en Allemagne, ainsi que quatre collections de l'Éocène, une au Canada en Colombie britannique, deux en Russie et une aux États-Unis au Wyoming. La période est donc de l'Éocène soit de 50,3 Ma à aujourd'hui.
 </t>
         </is>
       </c>
@@ -579,12 +591,158 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hygroceleuthus a été créé en 1857 par Loew. Il est déclaré synonyme en 2004 par Pollet et al..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dolichopus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichopus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-famille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est classé dans la sous-famille des Dolichopodinae à la création de celle-ci par Pierre-André Latreille en 1809. Celle-ci est confirmée en 2004 Pollet et al..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dolichopus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichopus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre, Dolichopus, du grec ancien δολιχός, dolikhos, « long », et  ποὺς, poús, « pied », fait référence à la longueur des pattes de ces espèces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dolichopus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichopus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolichopus est un grand genre cosmopolite de mouches de la famille des Dolichopodidae. Les adultes sont de petites mouches, généralement de moins de 8 mm de longueur. Presque toutes les espèces sont bleu verdâtre métallique à bronze verdâtre. C'est le plus grand genre de Dolichopodidae avec plus de 600 espèces dans le monde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dolichopus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichopus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database en 2023, huit espèces fossiles sont référencées dans ce genre[2] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, huit espèces fossiles sont référencées dans ce genre :
 †Dolichopus georgi Meuffels &amp; Grootaert, 1999
 †Dolichopus incertus Théobald, 1937
 †Dolichopus miluus Förster, 1891
@@ -592,7 +750,7 @@
 †Dolichopus scitus Statz, 1940
 †Dolichopus smicrus Meuffels &amp; Grootaert, 1999
 †Dolichopus spinosus Statz, 1940
-†Dolichopus titanus Meunier], 1907[2]
+†Dolichopus titanus Meunier], 1907
 </t>
         </is>
       </c>
